--- a/Program/Other/LM079_底稿_B045金融機構承作「工業區閒置土地抵押貸款」統計表.xlsx
+++ b/Program/Other/LM079_底稿_B045金融機構承作「工業區閒置土地抵押貸款」統計表.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.8\itxDoc\itxWrite\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\iTX\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8B2470-7689-4CB7-9EB2-C4280CFF2D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A32570-4E22-4E04-85AC-7C93DFEEF7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOA" sheetId="83" r:id="rId1"/>
     <sheet name="Original" sheetId="84" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="57">
   <si>
     <t>地區別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1109,10 +1100,6 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYY 年 MM 月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1881,167 +1868,175 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="25" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="33" fillId="29" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="33" fillId="29" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="33" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="37" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="25" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="33" fillId="29" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="33" fillId="29" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="33" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="37" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2119,9 +2114,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2159,9 +2154,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2194,26 +2189,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2246,26 +2224,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2442,845 +2403,969 @@
   <dimension ref="A1:BM25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:L18"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="15.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="3" customWidth="1"/>
-    <col min="7" max="11" width="15.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="50.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="4" style="3" customWidth="1"/>
-    <col min="14" max="65" width="8.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="66" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="14.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="2" customWidth="1"/>
+    <col min="7" max="11" width="15.6328125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="50.6328125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4" style="2" customWidth="1"/>
+    <col min="14" max="65" width="8.90625" style="2" hidden="1" customWidth="1"/>
+    <col min="66" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="24.6">
+    <row r="1" spans="1:62" ht="25">
       <c r="A1" s="1" t="str">
         <f>IF(COUNTBLANK(L7:L14)=8,"","本表有誤")</f>
         <v/>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="BA1" s="4" t="str">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="BA1" s="3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(F3," ",""),"　","")</f>
-        <v>YYY年MM月</v>
-      </c>
-      <c r="BB1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BB1" s="3" t="e">
         <f>LEFT(BA1,FIND("月",BA1,1))</f>
-        <v>YYY年MM月</v>
-      </c>
-      <c r="BC1" s="5" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC1" s="4" t="e">
         <f>MID(BA1,FIND("民國",BA1,1)+2,FIND("年",BA1,1)-FIND("民國",BA1,1)-2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BD1" s="5" t="str">
+      <c r="BD1" s="4" t="e">
         <f>MID(BA1,FIND("年",BA1,1)+1,FIND("月",BA1,1)-FIND("年",BA1,1)-1)</f>
-        <v>MM</v>
-      </c>
-      <c r="BE1" s="5" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE1" s="4" t="e">
         <f>(BC1+1911) &amp; RIGHT("0" &amp; BD1,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BG1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="BI1" s="5">
+      <c r="BI1" s="4">
         <v>4</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:62" s="7" customFormat="1" ht="19.8">
-      <c r="E2" s="8" t="s">
+    <row r="2" spans="1:62" s="6" customFormat="1" ht="19.5">
+      <c r="E2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
-    <row r="3" spans="1:62" s="7" customFormat="1" ht="19.8">
-      <c r="E3" s="11" t="s">
+    <row r="3" spans="1:62" s="6" customFormat="1" ht="19.5">
+      <c r="E3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
     </row>
-    <row r="5" spans="1:62" ht="16.2">
-      <c r="A5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:62" ht="17">
+      <c r="A5" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="N5" s="18" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="11"/>
+      <c r="N5" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15" t="s">
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15" t="s">
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="X5" s="15" t="s">
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="X5" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15" t="s">
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15" t="s">
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
     </row>
-    <row r="6" spans="1:62" s="27" customFormat="1" ht="64.8">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="19" t="s">
+    <row r="6" spans="1:62" s="18" customFormat="1" ht="68">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26" t="s">
+      <c r="M6" s="16"/>
+      <c r="N6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="S6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="T6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="V6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="X6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="19" t="s">
+      <c r="Y6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="21" t="s">
+      <c r="Z6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AA6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AB6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="21" t="s">
+      <c r="AC6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AD6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AE6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AF6" s="21" t="s">
+      <c r="AF6" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="31" t="str">
+      <c r="C7" s="37">
+        <v>0</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0</v>
+      </c>
+      <c r="G7" s="37">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <v>0</v>
+      </c>
+      <c r="I7" s="37">
+        <v>0</v>
+      </c>
+      <c r="J7" s="37">
+        <v>0</v>
+      </c>
+      <c r="K7" s="37">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22" t="str">
         <f>N7&amp;O7&amp;P7&amp;Q7&amp;R7&amp;S7&amp;T7&amp;U7&amp;V7&amp;Y7&amp;AB7&amp;AE7</f>
         <v/>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33" t="str">
+      <c r="M7" s="23"/>
+      <c r="N7" s="24" t="str">
         <f>IF(C7="","",IF(OR(C7&lt;0,C7&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C7&lt;&gt;ROUND(C7,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="O7" s="33" t="str">
+      <c r="O7" s="24" t="str">
         <f>IF(D7="","",IF(D7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D7&lt;&gt;ROUND(D7,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="P7" s="33" t="str">
+      <c r="P7" s="24" t="str">
         <f>IF(E7="","",IF(E7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E7&lt;&gt;ROUND(E7,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Q7" s="34" t="str">
+      <c r="Q7" s="25" t="str">
         <f>IF(F7="","",IF(OR(F7&lt;0,F7&gt;99999999.99),"110.9.24~110.12.16申請案件[撥款金額]須為小於9位之正數,",IF(F7&lt;&gt;ROUND(F7,2),"110.9.24~110.12.16申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="R7" s="34" t="str">
+      <c r="R7" s="25" t="str">
         <f>IF(G7="","",IF(G7&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G7&lt;&gt;ROUND(G7,2),"110.9.24~110.12.16申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="S7" s="34" t="str">
+      <c r="S7" s="25" t="str">
         <f>IF(H7="","",IF(H7&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H7&lt;&gt;ROUND(H7,2),"110.9.24~110.12.16申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="T7" s="35" t="str">
+      <c r="T7" s="26" t="str">
         <f>IF(I7="","",IF(OR(I7&lt;0,I7&gt;99999999.99),"110.12.17起申請案件[撥款金額]須為小於9位之正數,",IF(I7&lt;&gt;ROUND(I7,2),"110.12.17起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="U7" s="35" t="str">
+      <c r="U7" s="26" t="str">
         <f>IF(J7="","",IF(J7&gt;99.99,"110.12.17起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(J7&lt;&gt;ROUND(J7,2),"110.12.17起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="V7" s="35" t="str">
+      <c r="V7" s="26" t="str">
         <f>IF(K7="","",IF(K7&gt;99.99,"110.12.17起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(K7&lt;&gt;ROUND(K7,2),"110.12.17起申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Y7" s="36" t="str">
+      <c r="Y7" s="27" t="str">
         <f>IF(O7="",IF(D7&gt;55,"109.12.8~110.9.23申請案件加權平均貸款成數最高為5.5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AB7" s="36" t="str">
+      <c r="AB7" s="27" t="str">
         <f>IF(R7="",IF(G7&gt;50,"110.9.24~110.12.16申請案件加權平均貸款成數最高為5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AE7" s="36" t="str">
+      <c r="AE7" s="27" t="str">
         <f>IF(U7="",IF(J7&gt;40,"110.12.17起申請案件加權平均貸款成數最高為4成,",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="31" t="str">
+      <c r="C8" s="37">
+        <v>0</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0</v>
+      </c>
+      <c r="E8" s="37">
+        <v>0</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0</v>
+      </c>
+      <c r="G8" s="37">
+        <v>0</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0</v>
+      </c>
+      <c r="I8" s="37">
+        <v>0</v>
+      </c>
+      <c r="J8" s="37">
+        <v>0</v>
+      </c>
+      <c r="K8" s="37">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22" t="str">
         <f t="shared" ref="L8:L14" si="0">N8&amp;O8&amp;P8&amp;Q8&amp;R8&amp;S8&amp;T8&amp;U8&amp;V8&amp;Y8&amp;AB8&amp;AE8</f>
         <v/>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33" t="str">
+      <c r="M8" s="23"/>
+      <c r="N8" s="24" t="str">
         <f t="shared" ref="N8:N14" si="1">IF(C8="","",IF(OR(C8&lt;0,C8&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C8&lt;&gt;ROUND(C8,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="O8" s="33" t="str">
+      <c r="O8" s="24" t="str">
         <f t="shared" ref="O8:O14" si="2">IF(D8="","",IF(D8&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D8&lt;&gt;ROUND(D8,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="P8" s="33" t="str">
+      <c r="P8" s="24" t="str">
         <f t="shared" ref="P8:P14" si="3">IF(E8="","",IF(E8&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E8&lt;&gt;ROUND(E8,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Q8" s="34" t="str">
+      <c r="Q8" s="25" t="str">
         <f t="shared" ref="Q8:Q14" si="4">IF(F8="","",IF(OR(F8&lt;0,F8&gt;99999999.99),"110.9.24~110.12.16申請案件[撥款金額]須為小於9位之正數,",IF(F8&lt;&gt;ROUND(F8,2),"110.9.24~110.12.16申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="R8" s="34" t="str">
+      <c r="R8" s="25" t="str">
         <f t="shared" ref="R8:R14" si="5">IF(G8="","",IF(G8&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G8&lt;&gt;ROUND(G8,2),"110.9.24~110.12.16申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="S8" s="34" t="str">
+      <c r="S8" s="25" t="str">
         <f t="shared" ref="S8:S14" si="6">IF(H8="","",IF(H8&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H8&lt;&gt;ROUND(H8,2),"110.9.24~110.12.16申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="T8" s="35" t="str">
+      <c r="T8" s="26" t="str">
         <f t="shared" ref="T8:T14" si="7">IF(I8="","",IF(OR(I8&lt;0,I8&gt;99999999.99),"110.12.17起申請案件[撥款金額]須為小於9位之正數,",IF(I8&lt;&gt;ROUND(I8,2),"110.12.17起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="U8" s="35" t="str">
+      <c r="U8" s="26" t="str">
         <f t="shared" ref="U8:U14" si="8">IF(J8="","",IF(J8&gt;99.99,"110.12.17起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(J8&lt;&gt;ROUND(J8,2),"110.12.17起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="V8" s="35" t="str">
+      <c r="V8" s="26" t="str">
         <f t="shared" ref="V8:V14" si="9">IF(K8="","",IF(K8&gt;99.99,"110.12.17起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(K8&lt;&gt;ROUND(K8,2),"110.12.17起申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Y8" s="36" t="str">
+      <c r="Y8" s="27" t="str">
         <f t="shared" ref="Y8:Y13" si="10">IF(O8="",IF(D8&gt;55,"109.12.8~110.9.23申請案件加權平均貸款成數最高為5.5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AB8" s="36" t="str">
+      <c r="AB8" s="27" t="str">
         <f t="shared" ref="AB8:AB13" si="11">IF(R8="",IF(G8&gt;50,"110.9.24~110.12.16申請案件加權平均貸款成數最高為5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AE8" s="36" t="str">
+      <c r="AE8" s="27" t="str">
         <f t="shared" ref="AE8:AE13" si="12">IF(U8="",IF(J8&gt;40,"110.12.17起申請案件加權平均貸款成數最高為4成,",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="31" t="str">
+      <c r="C9" s="37">
+        <v>0</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0</v>
+      </c>
+      <c r="E9" s="37">
+        <v>0</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0</v>
+      </c>
+      <c r="I9" s="37">
+        <v>0</v>
+      </c>
+      <c r="J9" s="37">
+        <v>0</v>
+      </c>
+      <c r="K9" s="37">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="33" t="str">
+      <c r="M9" s="23"/>
+      <c r="N9" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O9" s="33" t="str">
+      <c r="O9" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P9" s="33" t="str">
+      <c r="P9" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q9" s="34" t="str">
+      <c r="Q9" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R9" s="34" t="str">
+      <c r="R9" s="25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S9" s="34" t="str">
+      <c r="S9" s="25" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T9" s="35" t="str">
+      <c r="T9" s="26" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U9" s="35" t="str">
+      <c r="U9" s="26" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V9" s="35" t="str">
+      <c r="V9" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y9" s="36" t="str">
+      <c r="Y9" s="27" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB9" s="36" t="str">
+      <c r="AB9" s="27" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE9" s="36" t="str">
+      <c r="AE9" s="27" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="31" t="str">
+      <c r="C10" s="37">
+        <v>0</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0</v>
+      </c>
+      <c r="G10" s="37">
+        <v>0</v>
+      </c>
+      <c r="H10" s="37">
+        <v>0</v>
+      </c>
+      <c r="I10" s="37">
+        <v>0</v>
+      </c>
+      <c r="J10" s="37">
+        <v>0</v>
+      </c>
+      <c r="K10" s="37">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33" t="str">
+      <c r="M10" s="23"/>
+      <c r="N10" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O10" s="33" t="str">
+      <c r="O10" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P10" s="33" t="str">
+      <c r="P10" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q10" s="34" t="str">
+      <c r="Q10" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R10" s="34" t="str">
+      <c r="R10" s="25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S10" s="34" t="str">
+      <c r="S10" s="25" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T10" s="35" t="str">
+      <c r="T10" s="26" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U10" s="35" t="str">
+      <c r="U10" s="26" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V10" s="35" t="str">
+      <c r="V10" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y10" s="36" t="str">
+      <c r="Y10" s="27" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB10" s="36" t="str">
+      <c r="AB10" s="27" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE10" s="36" t="str">
+      <c r="AE10" s="27" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="31" t="str">
+      <c r="C11" s="37">
+        <v>0</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0</v>
+      </c>
+      <c r="E11" s="37">
+        <v>0</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0</v>
+      </c>
+      <c r="I11" s="37">
+        <v>0</v>
+      </c>
+      <c r="J11" s="37">
+        <v>0</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0</v>
+      </c>
+      <c r="L11" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33" t="str">
+      <c r="M11" s="23"/>
+      <c r="N11" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O11" s="33" t="str">
+      <c r="O11" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P11" s="33" t="str">
+      <c r="P11" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q11" s="34" t="str">
+      <c r="Q11" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R11" s="34" t="str">
+      <c r="R11" s="25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S11" s="34" t="str">
+      <c r="S11" s="25" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T11" s="35" t="str">
+      <c r="T11" s="26" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U11" s="35" t="str">
+      <c r="U11" s="26" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V11" s="35" t="str">
+      <c r="V11" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y11" s="36" t="str">
+      <c r="Y11" s="27" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB11" s="36" t="str">
+      <c r="AB11" s="27" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE11" s="36" t="str">
+      <c r="AE11" s="27" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="31" t="str">
+      <c r="C12" s="37">
+        <v>0</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0</v>
+      </c>
+      <c r="J12" s="37">
+        <v>0</v>
+      </c>
+      <c r="K12" s="37">
+        <v>0</v>
+      </c>
+      <c r="L12" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33" t="str">
+      <c r="M12" s="23"/>
+      <c r="N12" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O12" s="33" t="str">
+      <c r="O12" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P12" s="33" t="str">
+      <c r="P12" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q12" s="34" t="str">
+      <c r="Q12" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R12" s="34" t="str">
+      <c r="R12" s="25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S12" s="34" t="str">
+      <c r="S12" s="25" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T12" s="35" t="str">
+      <c r="T12" s="26" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U12" s="35" t="str">
+      <c r="U12" s="26" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V12" s="35" t="str">
+      <c r="V12" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y12" s="36" t="str">
+      <c r="Y12" s="27" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB12" s="36" t="str">
+      <c r="AB12" s="27" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE12" s="36" t="str">
+      <c r="AE12" s="27" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="31" t="str">
+      <c r="C13" s="37">
+        <v>0</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0</v>
+      </c>
+      <c r="I13" s="37">
+        <v>0</v>
+      </c>
+      <c r="J13" s="37">
+        <v>0</v>
+      </c>
+      <c r="K13" s="37">
+        <v>0</v>
+      </c>
+      <c r="L13" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="33" t="str">
+      <c r="M13" s="23"/>
+      <c r="N13" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O13" s="33" t="str">
+      <c r="O13" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P13" s="33" t="str">
+      <c r="P13" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q13" s="34" t="str">
+      <c r="Q13" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R13" s="34" t="str">
+      <c r="R13" s="25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S13" s="34" t="str">
+      <c r="S13" s="25" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T13" s="35" t="str">
+      <c r="T13" s="26" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U13" s="35" t="str">
+      <c r="U13" s="26" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V13" s="35" t="str">
+      <c r="V13" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y13" s="36" t="str">
+      <c r="Y13" s="27" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB13" s="36" t="str">
+      <c r="AB13" s="27" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE13" s="36" t="str">
+      <c r="AE13" s="27" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:62" ht="18">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="29">
         <f>SUM(C7:C13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="30">
         <f>IF(C14=0,0,ROUND(SUMPRODUCT(C7:C13,D7:D13)/C14,2))</f>
         <v>0</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="31">
         <f>IF(C14=0,0,ROUND(SUMPRODUCT(C7:C13,E7:E13)/C14,2))</f>
         <v>0</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="31">
         <f>SUM(F7:F13)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="31">
         <f>IF(F14=0,0,ROUND(SUMPRODUCT(F7:F13,G7:G13)/F14,2))</f>
         <v>0</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="31">
         <f>IF(F14=0,0,ROUND(SUMPRODUCT(F7:F13,H7:H13)/F14,2))</f>
         <v>0</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="32">
         <f>SUM(I7:I13)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="32">
         <f>IF(I14=0,0,ROUND(SUMPRODUCT(I7:I13,J7:J13)/I14,2))</f>
         <v>0</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="32">
         <f>IF(I14=0,0,ROUND(SUMPRODUCT(I7:I13,K7:K13)/I14,2))</f>
         <v>0</v>
       </c>
-      <c r="L14" s="31" t="str">
+      <c r="L14" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="33" t="str">
+      <c r="M14" s="23"/>
+      <c r="N14" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O14" s="33" t="str">
+      <c r="O14" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P14" s="33" t="str">
+      <c r="P14" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q14" s="34" t="str">
+      <c r="Q14" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R14" s="34" t="str">
+      <c r="R14" s="25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S14" s="34" t="str">
+      <c r="S14" s="25" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T14" s="35" t="str">
+      <c r="T14" s="26" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U14" s="35" t="str">
+      <c r="U14" s="26" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V14" s="35" t="str">
+      <c r="V14" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="X14" s="42" t="str">
+      <c r="X14" s="33" t="str">
         <f>IF(N14="",IF(C14&lt;&gt;SUM(C7:C13),"109.12.8~110.9.23申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="Y14" s="43" t="str">
+      <c r="Y14" s="34" t="str">
         <f>IF(O14="",IF(D14&gt;65,"   109.12.8~110.9.23申請案件加權平均貸款成數最高為5.5成,",IF(C14=0,"",IF(D14&lt;&gt;ROUND(SUMPRODUCT(C7:C13,D7:D13)/C14,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="Z14" s="42" t="str">
+      <c r="Z14" s="33" t="str">
         <f>IF(P14="",IF(C14=0,"",IF(E14&lt;&gt;ROUND(SUMPRODUCT(C7:C13,E7:E13)/C14,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
-      <c r="AA14" s="42" t="str">
+      <c r="AA14" s="33" t="str">
         <f>IF(Q14="",IF(F14&lt;&gt;SUM(F7:F13),"110.9.24~110.12.16申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AB14" s="43" t="str">
+      <c r="AB14" s="34" t="str">
         <f>IF(R14="",IF(G14&gt;50,"   110.9.24~110.12.16申請案件加權平均貸款成數最高為5成,",IF(F14=0,"",IF(G14&lt;&gt;ROUND(SUMPRODUCT(F7:F13,G7:G13)/F14,2),"110.9.24~110.12.16申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="AC14" s="42" t="str">
+      <c r="AC14" s="33" t="str">
         <f>IF(S14="",IF(F14=0,"",IF(H14&lt;&gt;ROUND(SUMPRODUCT(F7:F13,H7:H13)/F14,2),"110.9.24~110.12.16申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
-      <c r="AD14" s="42" t="str">
+      <c r="AD14" s="33" t="str">
         <f>IF(T14="",IF(I14&lt;&gt;SUM(I7:I13),"110.12.17起申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AE14" s="43" t="str">
+      <c r="AE14" s="34" t="str">
         <f>IF(U14="",IF(J14&gt;40,"   110.12.17起申請案件加權平均貸款成數最高為4成,",IF(I14=0,"",IF(J14&lt;&gt;ROUND(SUMPRODUCT(I7:I13,J7:J13)/I14,2),"110.12.17起申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="AF14" s="42" t="str">
+      <c r="AF14" s="33" t="str">
         <f>IF(V14="",IF(I14=0,"",IF(K14&lt;&gt;ROUND(SUMPRODUCT(I7:I13,K7:K13)/I14,2),"110.12.17起申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
@@ -3301,187 +3386,175 @@
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
     </row>
-    <row r="16" spans="1:62" ht="19.8">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:62" ht="19.5">
+      <c r="A16" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="45" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="45" t="s">
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
     </row>
-    <row r="17" spans="1:12" ht="19.8">
-      <c r="A17" s="45" t="s">
+    <row r="17" spans="1:12" ht="19.5">
+      <c r="A17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="45" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="45" t="s">
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
     </row>
-    <row r="18" spans="1:12" ht="19.8">
-      <c r="A18" s="45" t="s">
+    <row r="18" spans="1:12" ht="19.5">
+      <c r="A18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="45" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="45" t="s">
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="16.2">
-      <c r="A20" s="48" t="s">
+    <row r="20" spans="1:12" ht="17">
+      <c r="A20" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="16.2">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:12" ht="17">
+      <c r="A21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="16.2">
-      <c r="A22" s="48" t="s">
+    <row r="22" spans="1:12" ht="17">
+      <c r="A22" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="16.2">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:12" ht="17">
+      <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="16.2">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:12" ht="17">
+      <c r="A24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="16.2">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:12" ht="17">
+      <c r="A25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -3524,970 +3597,970 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="15.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="3" customWidth="1"/>
-    <col min="7" max="11" width="15.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="50.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="4" style="3" customWidth="1"/>
-    <col min="14" max="65" width="8.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="66" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="14.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="2" customWidth="1"/>
+    <col min="7" max="11" width="15.6328125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="50.6328125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4" style="2" customWidth="1"/>
+    <col min="14" max="65" width="8.90625" style="2" hidden="1" customWidth="1"/>
+    <col min="66" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="24.6">
+    <row r="1" spans="1:62" ht="25">
       <c r="A1" s="1" t="str">
         <f>IF(COUNTBLANK(L7:L14)=8,"","本表有誤")</f>
         <v/>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="BA1" s="4" t="str">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="BA1" s="3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(F3," ",""),"　","")</f>
         <v>民國110年12月</v>
       </c>
-      <c r="BB1" s="4" t="str">
+      <c r="BB1" s="3" t="str">
         <f>LEFT(BA1,FIND("月",BA1,1))</f>
         <v>民國110年12月</v>
       </c>
-      <c r="BC1" s="5" t="str">
+      <c r="BC1" s="4" t="str">
         <f>MID(BA1,FIND("民國",BA1,1)+2,FIND("年",BA1,1)-FIND("民國",BA1,1)-2)</f>
         <v>110</v>
       </c>
-      <c r="BD1" s="5" t="str">
+      <c r="BD1" s="4" t="str">
         <f>MID(BA1,FIND("年",BA1,1)+1,FIND("月",BA1,1)-FIND("年",BA1,1)-1)</f>
         <v>12</v>
       </c>
-      <c r="BE1" s="5" t="str">
+      <c r="BE1" s="4" t="str">
         <f>(BC1+1911) &amp; RIGHT("0" &amp; BD1,2)</f>
         <v>202112</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BG1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="BI1" s="5">
+      <c r="BI1" s="4">
         <v>4</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:62" s="7" customFormat="1" ht="19.8">
-      <c r="E2" s="8" t="s">
+    <row r="2" spans="1:62" s="6" customFormat="1" ht="19.5">
+      <c r="E2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
-    <row r="3" spans="1:62" s="7" customFormat="1" ht="19.8">
-      <c r="E3" s="11" t="s">
+    <row r="3" spans="1:62" s="6" customFormat="1" ht="19.5">
+      <c r="E3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
     </row>
-    <row r="5" spans="1:62" ht="16.2">
-      <c r="A5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:62" ht="17">
+      <c r="A5" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="N5" s="18" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="11"/>
+      <c r="N5" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15" t="s">
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15" t="s">
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="X5" s="15" t="s">
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="X5" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15" t="s">
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15" t="s">
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
     </row>
-    <row r="6" spans="1:62" s="27" customFormat="1" ht="64.8">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="19" t="s">
+    <row r="6" spans="1:62" s="18" customFormat="1" ht="68">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26" t="s">
+      <c r="M6" s="16"/>
+      <c r="N6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="S6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="T6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="V6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="X6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="19" t="s">
+      <c r="Y6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="21" t="s">
+      <c r="Z6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AA6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AB6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="21" t="s">
+      <c r="AC6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AD6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AE6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AF6" s="21" t="s">
+      <c r="AF6" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="30">
-        <v>0</v>
-      </c>
-      <c r="D7" s="30">
-        <v>0</v>
-      </c>
-      <c r="E7" s="30">
-        <v>0</v>
-      </c>
-      <c r="F7" s="30">
-        <v>0</v>
-      </c>
-      <c r="G7" s="30">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30">
-        <v>0</v>
-      </c>
-      <c r="I7" s="30">
-        <v>0</v>
-      </c>
-      <c r="J7" s="30">
-        <v>0</v>
-      </c>
-      <c r="K7" s="30">
-        <v>0</v>
-      </c>
-      <c r="L7" s="31" t="str">
+      <c r="C7" s="21">
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22" t="str">
         <f>N7&amp;O7&amp;P7&amp;Q7&amp;R7&amp;S7&amp;T7&amp;U7&amp;V7&amp;Y7&amp;AB7&amp;AE7</f>
         <v/>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33" t="str">
+      <c r="M7" s="23"/>
+      <c r="N7" s="24" t="str">
         <f>IF(C7="","",IF(OR(C7&lt;0,C7&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C7&lt;&gt;ROUND(C7,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="O7" s="33" t="str">
+      <c r="O7" s="24" t="str">
         <f>IF(D7="","",IF(D7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D7&lt;&gt;ROUND(D7,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="P7" s="33" t="str">
+      <c r="P7" s="24" t="str">
         <f>IF(E7="","",IF(E7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E7&lt;&gt;ROUND(E7,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Q7" s="34" t="str">
+      <c r="Q7" s="25" t="str">
         <f>IF(F7="","",IF(OR(F7&lt;0,F7&gt;99999999.99),"110.9.24~110.12.16申請案件[撥款金額]須為小於9位之正數,",IF(F7&lt;&gt;ROUND(F7,2),"110.9.24~110.12.16申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="R7" s="34" t="str">
+      <c r="R7" s="25" t="str">
         <f>IF(G7="","",IF(G7&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G7&lt;&gt;ROUND(G7,2),"110.9.24~110.12.16申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="S7" s="34" t="str">
+      <c r="S7" s="25" t="str">
         <f>IF(H7="","",IF(H7&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H7&lt;&gt;ROUND(H7,2),"110.9.24~110.12.16申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="T7" s="35" t="str">
+      <c r="T7" s="26" t="str">
         <f>IF(I7="","",IF(OR(I7&lt;0,I7&gt;99999999.99),"110.12.17起申請案件[撥款金額]須為小於9位之正數,",IF(I7&lt;&gt;ROUND(I7,2),"110.12.17起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="U7" s="35" t="str">
+      <c r="U7" s="26" t="str">
         <f>IF(J7="","",IF(J7&gt;99.99,"110.12.17起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(J7&lt;&gt;ROUND(J7,2),"110.12.17起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="V7" s="35" t="str">
+      <c r="V7" s="26" t="str">
         <f>IF(K7="","",IF(K7&gt;99.99,"110.12.17起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(K7&lt;&gt;ROUND(K7,2),"110.12.17起申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Y7" s="36" t="str">
+      <c r="Y7" s="27" t="str">
         <f>IF(O7="",IF(D7&gt;55,"109.12.8~110.9.23申請案件加權平均貸款成數最高為5.5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AB7" s="36" t="str">
+      <c r="AB7" s="27" t="str">
         <f>IF(R7="",IF(G7&gt;50,"110.9.24~110.12.16申請案件加權平均貸款成數最高為5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AE7" s="36" t="str">
+      <c r="AE7" s="27" t="str">
         <f>IF(U7="",IF(J7&gt;40,"110.12.17起申請案件加權平均貸款成數最高為4成,",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="30">
-        <v>0</v>
-      </c>
-      <c r="D8" s="30">
-        <v>0</v>
-      </c>
-      <c r="E8" s="30">
-        <v>0</v>
-      </c>
-      <c r="F8" s="30">
-        <v>0</v>
-      </c>
-      <c r="G8" s="30">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30">
-        <v>0</v>
-      </c>
-      <c r="I8" s="30">
-        <v>0</v>
-      </c>
-      <c r="J8" s="30">
-        <v>0</v>
-      </c>
-      <c r="K8" s="30">
-        <v>0</v>
-      </c>
-      <c r="L8" s="31" t="str">
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0</v>
+      </c>
+      <c r="J8" s="21">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22" t="str">
         <f t="shared" ref="L8:L14" si="0">N8&amp;O8&amp;P8&amp;Q8&amp;R8&amp;S8&amp;T8&amp;U8&amp;V8&amp;Y8&amp;AB8&amp;AE8</f>
         <v/>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33" t="str">
+      <c r="M8" s="23"/>
+      <c r="N8" s="24" t="str">
         <f t="shared" ref="N8:N14" si="1">IF(C8="","",IF(OR(C8&lt;0,C8&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C8&lt;&gt;ROUND(C8,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="O8" s="33" t="str">
+      <c r="O8" s="24" t="str">
         <f t="shared" ref="O8:O14" si="2">IF(D8="","",IF(D8&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D8&lt;&gt;ROUND(D8,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="P8" s="33" t="str">
+      <c r="P8" s="24" t="str">
         <f t="shared" ref="P8:P14" si="3">IF(E8="","",IF(E8&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E8&lt;&gt;ROUND(E8,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Q8" s="34" t="str">
+      <c r="Q8" s="25" t="str">
         <f t="shared" ref="Q8:Q14" si="4">IF(F8="","",IF(OR(F8&lt;0,F8&gt;99999999.99),"110.9.24~110.12.16申請案件[撥款金額]須為小於9位之正數,",IF(F8&lt;&gt;ROUND(F8,2),"110.9.24~110.12.16申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="R8" s="34" t="str">
+      <c r="R8" s="25" t="str">
         <f t="shared" ref="R8:R14" si="5">IF(G8="","",IF(G8&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G8&lt;&gt;ROUND(G8,2),"110.9.24~110.12.16申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="S8" s="34" t="str">
+      <c r="S8" s="25" t="str">
         <f t="shared" ref="S8:S14" si="6">IF(H8="","",IF(H8&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H8&lt;&gt;ROUND(H8,2),"110.9.24~110.12.16申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="T8" s="35" t="str">
+      <c r="T8" s="26" t="str">
         <f t="shared" ref="T8:T14" si="7">IF(I8="","",IF(OR(I8&lt;0,I8&gt;99999999.99),"110.12.17起申請案件[撥款金額]須為小於9位之正數,",IF(I8&lt;&gt;ROUND(I8,2),"110.12.17起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="U8" s="35" t="str">
+      <c r="U8" s="26" t="str">
         <f t="shared" ref="U8:U14" si="8">IF(J8="","",IF(J8&gt;99.99,"110.12.17起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(J8&lt;&gt;ROUND(J8,2),"110.12.17起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="V8" s="35" t="str">
+      <c r="V8" s="26" t="str">
         <f t="shared" ref="V8:V14" si="9">IF(K8="","",IF(K8&gt;99.99,"110.12.17起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(K8&lt;&gt;ROUND(K8,2),"110.12.17起申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Y8" s="36" t="str">
+      <c r="Y8" s="27" t="str">
         <f t="shared" ref="Y8:Y13" si="10">IF(O8="",IF(D8&gt;55,"109.12.8~110.9.23申請案件加權平均貸款成數最高為5.5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AB8" s="36" t="str">
+      <c r="AB8" s="27" t="str">
         <f t="shared" ref="AB8:AB13" si="11">IF(R8="",IF(G8&gt;50,"110.9.24~110.12.16申請案件加權平均貸款成數最高為5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AE8" s="36" t="str">
+      <c r="AE8" s="27" t="str">
         <f t="shared" ref="AE8:AE13" si="12">IF(U8="",IF(J8&gt;40,"110.12.17起申請案件加權平均貸款成數最高為4成,",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="30">
-        <v>0</v>
-      </c>
-      <c r="D9" s="30">
-        <v>0</v>
-      </c>
-      <c r="E9" s="30">
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
-        <v>0</v>
-      </c>
-      <c r="G9" s="30">
-        <v>0</v>
-      </c>
-      <c r="H9" s="30">
-        <v>0</v>
-      </c>
-      <c r="I9" s="30">
-        <v>0</v>
-      </c>
-      <c r="J9" s="30">
-        <v>0</v>
-      </c>
-      <c r="K9" s="30">
-        <v>0</v>
-      </c>
-      <c r="L9" s="31" t="str">
+      <c r="C9" s="21">
+        <v>0</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="33" t="str">
+      <c r="M9" s="23"/>
+      <c r="N9" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O9" s="33" t="str">
+      <c r="O9" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P9" s="33" t="str">
+      <c r="P9" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q9" s="34" t="str">
+      <c r="Q9" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R9" s="34" t="str">
+      <c r="R9" s="25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S9" s="34" t="str">
+      <c r="S9" s="25" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T9" s="35" t="str">
+      <c r="T9" s="26" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U9" s="35" t="str">
+      <c r="U9" s="26" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V9" s="35" t="str">
+      <c r="V9" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y9" s="36" t="str">
+      <c r="Y9" s="27" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB9" s="36" t="str">
+      <c r="AB9" s="27" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE9" s="36" t="str">
+      <c r="AE9" s="27" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="30">
-        <v>0</v>
-      </c>
-      <c r="D10" s="30">
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
-        <v>0</v>
-      </c>
-      <c r="G10" s="30">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30">
-        <v>0</v>
-      </c>
-      <c r="I10" s="30">
-        <v>0</v>
-      </c>
-      <c r="J10" s="30">
-        <v>0</v>
-      </c>
-      <c r="K10" s="30">
-        <v>0</v>
-      </c>
-      <c r="L10" s="31" t="str">
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33" t="str">
+      <c r="M10" s="23"/>
+      <c r="N10" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O10" s="33" t="str">
+      <c r="O10" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P10" s="33" t="str">
+      <c r="P10" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q10" s="34" t="str">
+      <c r="Q10" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R10" s="34" t="str">
+      <c r="R10" s="25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S10" s="34" t="str">
+      <c r="S10" s="25" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T10" s="35" t="str">
+      <c r="T10" s="26" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U10" s="35" t="str">
+      <c r="U10" s="26" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V10" s="35" t="str">
+      <c r="V10" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y10" s="36" t="str">
+      <c r="Y10" s="27" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB10" s="36" t="str">
+      <c r="AB10" s="27" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE10" s="36" t="str">
+      <c r="AE10" s="27" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="30">
-        <v>0</v>
-      </c>
-      <c r="D11" s="30">
-        <v>0</v>
-      </c>
-      <c r="E11" s="30">
-        <v>0</v>
-      </c>
-      <c r="F11" s="30">
-        <v>0</v>
-      </c>
-      <c r="G11" s="30">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30">
-        <v>0</v>
-      </c>
-      <c r="I11" s="30">
-        <v>0</v>
-      </c>
-      <c r="J11" s="30">
-        <v>0</v>
-      </c>
-      <c r="K11" s="30">
-        <v>0</v>
-      </c>
-      <c r="L11" s="31" t="str">
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0</v>
+      </c>
+      <c r="I11" s="21">
+        <v>0</v>
+      </c>
+      <c r="J11" s="21">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0</v>
+      </c>
+      <c r="L11" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33" t="str">
+      <c r="M11" s="23"/>
+      <c r="N11" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O11" s="33" t="str">
+      <c r="O11" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P11" s="33" t="str">
+      <c r="P11" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q11" s="34" t="str">
+      <c r="Q11" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R11" s="34" t="str">
+      <c r="R11" s="25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S11" s="34" t="str">
+      <c r="S11" s="25" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T11" s="35" t="str">
+      <c r="T11" s="26" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U11" s="35" t="str">
+      <c r="U11" s="26" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V11" s="35" t="str">
+      <c r="V11" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y11" s="36" t="str">
+      <c r="Y11" s="27" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB11" s="36" t="str">
+      <c r="AB11" s="27" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE11" s="36" t="str">
+      <c r="AE11" s="27" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="30">
-        <v>0</v>
-      </c>
-      <c r="D12" s="30">
-        <v>0</v>
-      </c>
-      <c r="E12" s="30">
-        <v>0</v>
-      </c>
-      <c r="F12" s="30">
-        <v>0</v>
-      </c>
-      <c r="G12" s="30">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30">
-        <v>0</v>
-      </c>
-      <c r="I12" s="30">
-        <v>0</v>
-      </c>
-      <c r="J12" s="30">
-        <v>0</v>
-      </c>
-      <c r="K12" s="30">
-        <v>0</v>
-      </c>
-      <c r="L12" s="31" t="str">
+      <c r="C12" s="21">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0</v>
+      </c>
+      <c r="I12" s="21">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0</v>
+      </c>
+      <c r="K12" s="21">
+        <v>0</v>
+      </c>
+      <c r="L12" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33" t="str">
+      <c r="M12" s="23"/>
+      <c r="N12" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O12" s="33" t="str">
+      <c r="O12" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P12" s="33" t="str">
+      <c r="P12" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q12" s="34" t="str">
+      <c r="Q12" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R12" s="34" t="str">
+      <c r="R12" s="25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S12" s="34" t="str">
+      <c r="S12" s="25" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T12" s="35" t="str">
+      <c r="T12" s="26" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U12" s="35" t="str">
+      <c r="U12" s="26" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V12" s="35" t="str">
+      <c r="V12" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y12" s="36" t="str">
+      <c r="Y12" s="27" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB12" s="36" t="str">
+      <c r="AB12" s="27" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE12" s="36" t="str">
+      <c r="AE12" s="27" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="30">
-        <v>0</v>
-      </c>
-      <c r="D13" s="30">
-        <v>0</v>
-      </c>
-      <c r="E13" s="30">
-        <v>0</v>
-      </c>
-      <c r="F13" s="30">
-        <v>0</v>
-      </c>
-      <c r="G13" s="30">
-        <v>0</v>
-      </c>
-      <c r="H13" s="30">
-        <v>0</v>
-      </c>
-      <c r="I13" s="30">
-        <v>0</v>
-      </c>
-      <c r="J13" s="30">
-        <v>0</v>
-      </c>
-      <c r="K13" s="30">
-        <v>0</v>
-      </c>
-      <c r="L13" s="31" t="str">
+      <c r="C13" s="21">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+      <c r="L13" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="33" t="str">
+      <c r="M13" s="23"/>
+      <c r="N13" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O13" s="33" t="str">
+      <c r="O13" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P13" s="33" t="str">
+      <c r="P13" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q13" s="34" t="str">
+      <c r="Q13" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R13" s="34" t="str">
+      <c r="R13" s="25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S13" s="34" t="str">
+      <c r="S13" s="25" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T13" s="35" t="str">
+      <c r="T13" s="26" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U13" s="35" t="str">
+      <c r="U13" s="26" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V13" s="35" t="str">
+      <c r="V13" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y13" s="36" t="str">
+      <c r="Y13" s="27" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB13" s="36" t="str">
+      <c r="AB13" s="27" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE13" s="36" t="str">
+      <c r="AE13" s="27" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:62" ht="18">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="29">
         <f>SUM(C7:C13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="30">
         <f>IF(C14=0,0,ROUND(SUMPRODUCT(C7:C13,D7:D13)/C14,2))</f>
         <v>0</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="31">
         <f>IF(C14=0,0,ROUND(SUMPRODUCT(C7:C13,E7:E13)/C14,2))</f>
         <v>0</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="31">
         <f>SUM(F7:F13)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="31">
         <f>IF(F14=0,0,ROUND(SUMPRODUCT(F7:F13,G7:G13)/F14,2))</f>
         <v>0</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="31">
         <f>IF(F14=0,0,ROUND(SUMPRODUCT(F7:F13,H7:H13)/F14,2))</f>
         <v>0</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="32">
         <f>SUM(I7:I13)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="32">
         <f>IF(I14=0,0,ROUND(SUMPRODUCT(I7:I13,J7:J13)/I14,2))</f>
         <v>0</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="32">
         <f>IF(I14=0,0,ROUND(SUMPRODUCT(I7:I13,K7:K13)/I14,2))</f>
         <v>0</v>
       </c>
-      <c r="L14" s="31" t="str">
+      <c r="L14" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="33" t="str">
+      <c r="M14" s="23"/>
+      <c r="N14" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O14" s="33" t="str">
+      <c r="O14" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P14" s="33" t="str">
+      <c r="P14" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q14" s="34" t="str">
+      <c r="Q14" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R14" s="34" t="str">
+      <c r="R14" s="25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S14" s="34" t="str">
+      <c r="S14" s="25" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T14" s="35" t="str">
+      <c r="T14" s="26" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U14" s="35" t="str">
+      <c r="U14" s="26" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V14" s="35" t="str">
+      <c r="V14" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="X14" s="42" t="str">
+      <c r="X14" s="33" t="str">
         <f>IF(N14="",IF(C14&lt;&gt;SUM(C7:C13),"109.12.8~110.9.23申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="Y14" s="43" t="str">
+      <c r="Y14" s="34" t="str">
         <f>IF(O14="",IF(D14&gt;65,"   109.12.8~110.9.23申請案件加權平均貸款成數最高為5.5成,",IF(C14=0,"",IF(D14&lt;&gt;ROUND(SUMPRODUCT(C7:C13,D7:D13)/C14,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="Z14" s="42" t="str">
+      <c r="Z14" s="33" t="str">
         <f>IF(P14="",IF(C14=0,"",IF(E14&lt;&gt;ROUND(SUMPRODUCT(C7:C13,E7:E13)/C14,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
-      <c r="AA14" s="42" t="str">
+      <c r="AA14" s="33" t="str">
         <f>IF(Q14="",IF(F14&lt;&gt;SUM(F7:F13),"110.9.24~110.12.16申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AB14" s="43" t="str">
+      <c r="AB14" s="34" t="str">
         <f>IF(R14="",IF(G14&gt;50,"   110.9.24~110.12.16申請案件加權平均貸款成數最高為5成,",IF(F14=0,"",IF(G14&lt;&gt;ROUND(SUMPRODUCT(F7:F13,G7:G13)/F14,2),"110.9.24~110.12.16申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="AC14" s="42" t="str">
+      <c r="AC14" s="33" t="str">
         <f>IF(S14="",IF(F14=0,"",IF(H14&lt;&gt;ROUND(SUMPRODUCT(F7:F13,H7:H13)/F14,2),"110.9.24~110.12.16申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
-      <c r="AD14" s="42" t="str">
+      <c r="AD14" s="33" t="str">
         <f>IF(T14="",IF(I14&lt;&gt;SUM(I7:I13),"110.12.17起申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AE14" s="43" t="str">
+      <c r="AE14" s="34" t="str">
         <f>IF(U14="",IF(J14&gt;40,"   110.12.17起申請案件加權平均貸款成數最高為4成,",IF(I14=0,"",IF(J14&lt;&gt;ROUND(SUMPRODUCT(I7:I13,J7:J13)/I14,2),"110.12.17起申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="AF14" s="42" t="str">
+      <c r="AF14" s="33" t="str">
         <f>IF(V14="",IF(I14=0,"",IF(K14&lt;&gt;ROUND(SUMPRODUCT(I7:I13,K7:K13)/I14,2),"110.12.17起申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
@@ -4508,187 +4581,187 @@
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
     </row>
-    <row r="16" spans="1:62" ht="19.8">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:62" ht="19.5">
+      <c r="A16" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="45" t="s">
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="45" t="s">
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
     </row>
-    <row r="17" spans="1:12" ht="19.8">
-      <c r="A17" s="45" t="s">
+    <row r="17" spans="1:12" ht="19.5">
+      <c r="A17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="45" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="45" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
     </row>
-    <row r="18" spans="1:12" ht="19.8">
-      <c r="A18" s="45" t="s">
+    <row r="18" spans="1:12" ht="19.5">
+      <c r="A18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="45" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="45" t="s">
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="16.2">
-      <c r="A20" s="48" t="s">
+    <row r="20" spans="1:12" ht="17">
+      <c r="A20" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="16.2">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:12" ht="17">
+      <c r="A21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="16.2">
-      <c r="A22" s="48" t="s">
+    <row r="22" spans="1:12" ht="17">
+      <c r="A22" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="16.2">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:12" ht="17">
+      <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="16.2">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:12" ht="17">
+      <c r="A24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="16.2">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:12" ht="17">
+      <c r="A25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -4702,11 +4775,6 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="J17:L17"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
     <mergeCell ref="AD5:AF5"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="F2:H2"/>
@@ -4716,6 +4784,11 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
